--- a/measured/ideal/新建 Microsoft Excel 工作表.xlsx
+++ b/measured/ideal/新建 Microsoft Excel 工作表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="L_990M" sheetId="8" r:id="rId1"/>
@@ -370,7 +370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A47" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -2304,10 +2304,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C300"/>
+  <dimension ref="A1:C341"/>
   <sheetViews>
-    <sheetView topLeftCell="A263" workbookViewId="0">
-      <selection activeCell="E322" sqref="E322"/>
+    <sheetView tabSelected="1" topLeftCell="A294" workbookViewId="0">
+      <selection activeCell="A301" sqref="A301:C342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5617,6 +5617,457 @@
         <v>0</v>
       </c>
     </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A301" s="1">
+        <v>4000</v>
+      </c>
+      <c r="B301" s="1">
+        <v>0</v>
+      </c>
+      <c r="C301" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A302" s="1">
+        <v>4010</v>
+      </c>
+      <c r="B302" s="1">
+        <v>0</v>
+      </c>
+      <c r="C302" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A303" s="1">
+        <v>4020</v>
+      </c>
+      <c r="B303" s="1">
+        <v>0</v>
+      </c>
+      <c r="C303" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A304" s="1">
+        <v>4030</v>
+      </c>
+      <c r="B304" s="1">
+        <v>0</v>
+      </c>
+      <c r="C304" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A305" s="1">
+        <v>4040</v>
+      </c>
+      <c r="B305" s="1">
+        <v>0</v>
+      </c>
+      <c r="C305" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A306" s="1">
+        <v>4050</v>
+      </c>
+      <c r="B306" s="1">
+        <v>0</v>
+      </c>
+      <c r="C306" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A307" s="1">
+        <v>4060</v>
+      </c>
+      <c r="B307" s="1">
+        <v>0</v>
+      </c>
+      <c r="C307" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A308" s="1">
+        <v>4070</v>
+      </c>
+      <c r="B308" s="1">
+        <v>0</v>
+      </c>
+      <c r="C308" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A309" s="1">
+        <v>4080</v>
+      </c>
+      <c r="B309" s="1">
+        <v>0</v>
+      </c>
+      <c r="C309" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A310" s="1">
+        <v>4090</v>
+      </c>
+      <c r="B310" s="1">
+        <v>0</v>
+      </c>
+      <c r="C310" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A311" s="1">
+        <v>4100</v>
+      </c>
+      <c r="B311" s="1">
+        <v>0</v>
+      </c>
+      <c r="C311" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A312" s="1">
+        <v>4110</v>
+      </c>
+      <c r="B312" s="1">
+        <v>0</v>
+      </c>
+      <c r="C312" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A313" s="1">
+        <v>4120</v>
+      </c>
+      <c r="B313" s="1">
+        <v>0</v>
+      </c>
+      <c r="C313" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A314" s="1">
+        <v>4130</v>
+      </c>
+      <c r="B314" s="1">
+        <v>0</v>
+      </c>
+      <c r="C314" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A315" s="1">
+        <v>4140</v>
+      </c>
+      <c r="B315" s="1">
+        <v>0</v>
+      </c>
+      <c r="C315" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A316" s="1">
+        <v>4150</v>
+      </c>
+      <c r="B316" s="1">
+        <v>0</v>
+      </c>
+      <c r="C316" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A317" s="1">
+        <v>4160</v>
+      </c>
+      <c r="B317" s="1">
+        <v>0</v>
+      </c>
+      <c r="C317" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A318" s="1">
+        <v>4170</v>
+      </c>
+      <c r="B318" s="1">
+        <v>0</v>
+      </c>
+      <c r="C318" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A319" s="1">
+        <v>4180</v>
+      </c>
+      <c r="B319" s="1">
+        <v>0</v>
+      </c>
+      <c r="C319" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A320" s="1">
+        <v>4190</v>
+      </c>
+      <c r="B320" s="1">
+        <v>0</v>
+      </c>
+      <c r="C320" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A321" s="1">
+        <v>4200</v>
+      </c>
+      <c r="B321" s="1">
+        <v>0</v>
+      </c>
+      <c r="C321" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A322" s="1">
+        <v>4210</v>
+      </c>
+      <c r="B322" s="1">
+        <v>0</v>
+      </c>
+      <c r="C322" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A323" s="1">
+        <v>4220</v>
+      </c>
+      <c r="B323" s="1">
+        <v>0</v>
+      </c>
+      <c r="C323" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A324" s="1">
+        <v>4230</v>
+      </c>
+      <c r="B324" s="1">
+        <v>0</v>
+      </c>
+      <c r="C324" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A325" s="1">
+        <v>4240</v>
+      </c>
+      <c r="B325" s="1">
+        <v>0</v>
+      </c>
+      <c r="C325" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A326" s="1">
+        <v>4250</v>
+      </c>
+      <c r="B326" s="1">
+        <v>0</v>
+      </c>
+      <c r="C326" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A327" s="1">
+        <v>4260</v>
+      </c>
+      <c r="B327" s="1">
+        <v>0</v>
+      </c>
+      <c r="C327" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A328" s="1">
+        <v>4270</v>
+      </c>
+      <c r="B328" s="1">
+        <v>0</v>
+      </c>
+      <c r="C328" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A329" s="1">
+        <v>4280</v>
+      </c>
+      <c r="B329" s="1">
+        <v>0</v>
+      </c>
+      <c r="C329" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A330" s="1">
+        <v>4290</v>
+      </c>
+      <c r="B330" s="1">
+        <v>0</v>
+      </c>
+      <c r="C330" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A331" s="1">
+        <v>4300</v>
+      </c>
+      <c r="B331" s="1">
+        <v>0</v>
+      </c>
+      <c r="C331" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A332" s="1">
+        <v>4310</v>
+      </c>
+      <c r="B332" s="1">
+        <v>0</v>
+      </c>
+      <c r="C332" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A333" s="1">
+        <v>4320</v>
+      </c>
+      <c r="B333" s="1">
+        <v>0</v>
+      </c>
+      <c r="C333" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A334" s="1">
+        <v>4330</v>
+      </c>
+      <c r="B334" s="1">
+        <v>0</v>
+      </c>
+      <c r="C334" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A335" s="1">
+        <v>4340</v>
+      </c>
+      <c r="B335" s="1">
+        <v>0</v>
+      </c>
+      <c r="C335" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A336" s="1">
+        <v>4350</v>
+      </c>
+      <c r="B336" s="1">
+        <v>0</v>
+      </c>
+      <c r="C336" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A337" s="1">
+        <v>4360</v>
+      </c>
+      <c r="B337" s="1">
+        <v>0</v>
+      </c>
+      <c r="C337" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A338" s="1">
+        <v>4370</v>
+      </c>
+      <c r="B338" s="1">
+        <v>0</v>
+      </c>
+      <c r="C338" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A339" s="1">
+        <v>4380</v>
+      </c>
+      <c r="B339" s="1">
+        <v>0</v>
+      </c>
+      <c r="C339" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A340" s="1">
+        <v>4390</v>
+      </c>
+      <c r="B340" s="1">
+        <v>0</v>
+      </c>
+      <c r="C340" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A341" s="1">
+        <v>4400</v>
+      </c>
+      <c r="B341" s="1">
+        <v>0</v>
+      </c>
+      <c r="C341" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5626,10 +6077,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C300"/>
+  <dimension ref="A1:C341"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="A1:C300"/>
+    <sheetView topLeftCell="A294" workbookViewId="0">
+      <selection activeCell="A301" sqref="A301:C341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8934,6 +9385,457 @@
         <v>1</v>
       </c>
       <c r="C300" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A301" s="1">
+        <v>4000</v>
+      </c>
+      <c r="B301" s="1">
+        <v>1</v>
+      </c>
+      <c r="C301" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A302" s="1">
+        <v>4010</v>
+      </c>
+      <c r="B302" s="1">
+        <v>1</v>
+      </c>
+      <c r="C302" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A303" s="1">
+        <v>4020</v>
+      </c>
+      <c r="B303" s="1">
+        <v>1</v>
+      </c>
+      <c r="C303" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A304" s="1">
+        <v>4030</v>
+      </c>
+      <c r="B304" s="1">
+        <v>1</v>
+      </c>
+      <c r="C304" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A305" s="1">
+        <v>4040</v>
+      </c>
+      <c r="B305" s="1">
+        <v>1</v>
+      </c>
+      <c r="C305" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A306" s="1">
+        <v>4050</v>
+      </c>
+      <c r="B306" s="1">
+        <v>1</v>
+      </c>
+      <c r="C306" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A307" s="1">
+        <v>4060</v>
+      </c>
+      <c r="B307" s="1">
+        <v>1</v>
+      </c>
+      <c r="C307" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A308" s="1">
+        <v>4070</v>
+      </c>
+      <c r="B308" s="1">
+        <v>1</v>
+      </c>
+      <c r="C308" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A309" s="1">
+        <v>4080</v>
+      </c>
+      <c r="B309" s="1">
+        <v>1</v>
+      </c>
+      <c r="C309" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A310" s="1">
+        <v>4090</v>
+      </c>
+      <c r="B310" s="1">
+        <v>1</v>
+      </c>
+      <c r="C310" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A311" s="1">
+        <v>4100</v>
+      </c>
+      <c r="B311" s="1">
+        <v>1</v>
+      </c>
+      <c r="C311" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A312" s="1">
+        <v>4110</v>
+      </c>
+      <c r="B312" s="1">
+        <v>1</v>
+      </c>
+      <c r="C312" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A313" s="1">
+        <v>4120</v>
+      </c>
+      <c r="B313" s="1">
+        <v>1</v>
+      </c>
+      <c r="C313" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A314" s="1">
+        <v>4130</v>
+      </c>
+      <c r="B314" s="1">
+        <v>1</v>
+      </c>
+      <c r="C314" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A315" s="1">
+        <v>4140</v>
+      </c>
+      <c r="B315" s="1">
+        <v>1</v>
+      </c>
+      <c r="C315" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A316" s="1">
+        <v>4150</v>
+      </c>
+      <c r="B316" s="1">
+        <v>1</v>
+      </c>
+      <c r="C316" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A317" s="1">
+        <v>4160</v>
+      </c>
+      <c r="B317" s="1">
+        <v>1</v>
+      </c>
+      <c r="C317" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A318" s="1">
+        <v>4170</v>
+      </c>
+      <c r="B318" s="1">
+        <v>1</v>
+      </c>
+      <c r="C318" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A319" s="1">
+        <v>4180</v>
+      </c>
+      <c r="B319" s="1">
+        <v>1</v>
+      </c>
+      <c r="C319" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A320" s="1">
+        <v>4190</v>
+      </c>
+      <c r="B320" s="1">
+        <v>1</v>
+      </c>
+      <c r="C320" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A321" s="1">
+        <v>4200</v>
+      </c>
+      <c r="B321" s="1">
+        <v>1</v>
+      </c>
+      <c r="C321" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A322" s="1">
+        <v>4210</v>
+      </c>
+      <c r="B322" s="1">
+        <v>1</v>
+      </c>
+      <c r="C322" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A323" s="1">
+        <v>4220</v>
+      </c>
+      <c r="B323" s="1">
+        <v>1</v>
+      </c>
+      <c r="C323" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A324" s="1">
+        <v>4230</v>
+      </c>
+      <c r="B324" s="1">
+        <v>1</v>
+      </c>
+      <c r="C324" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A325" s="1">
+        <v>4240</v>
+      </c>
+      <c r="B325" s="1">
+        <v>1</v>
+      </c>
+      <c r="C325" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A326" s="1">
+        <v>4250</v>
+      </c>
+      <c r="B326" s="1">
+        <v>1</v>
+      </c>
+      <c r="C326" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A327" s="1">
+        <v>4260</v>
+      </c>
+      <c r="B327" s="1">
+        <v>1</v>
+      </c>
+      <c r="C327" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A328" s="1">
+        <v>4270</v>
+      </c>
+      <c r="B328" s="1">
+        <v>1</v>
+      </c>
+      <c r="C328" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A329" s="1">
+        <v>4280</v>
+      </c>
+      <c r="B329" s="1">
+        <v>1</v>
+      </c>
+      <c r="C329" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A330" s="1">
+        <v>4290</v>
+      </c>
+      <c r="B330" s="1">
+        <v>1</v>
+      </c>
+      <c r="C330" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A331" s="1">
+        <v>4300</v>
+      </c>
+      <c r="B331" s="1">
+        <v>1</v>
+      </c>
+      <c r="C331" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A332" s="1">
+        <v>4310</v>
+      </c>
+      <c r="B332" s="1">
+        <v>1</v>
+      </c>
+      <c r="C332" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A333" s="1">
+        <v>4320</v>
+      </c>
+      <c r="B333" s="1">
+        <v>1</v>
+      </c>
+      <c r="C333" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A334" s="1">
+        <v>4330</v>
+      </c>
+      <c r="B334" s="1">
+        <v>1</v>
+      </c>
+      <c r="C334" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A335" s="1">
+        <v>4340</v>
+      </c>
+      <c r="B335" s="1">
+        <v>1</v>
+      </c>
+      <c r="C335" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A336" s="1">
+        <v>4350</v>
+      </c>
+      <c r="B336" s="1">
+        <v>1</v>
+      </c>
+      <c r="C336" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A337" s="1">
+        <v>4360</v>
+      </c>
+      <c r="B337" s="1">
+        <v>1</v>
+      </c>
+      <c r="C337" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A338" s="1">
+        <v>4370</v>
+      </c>
+      <c r="B338" s="1">
+        <v>1</v>
+      </c>
+      <c r="C338" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A339" s="1">
+        <v>4380</v>
+      </c>
+      <c r="B339" s="1">
+        <v>1</v>
+      </c>
+      <c r="C339" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A340" s="1">
+        <v>4390</v>
+      </c>
+      <c r="B340" s="1">
+        <v>1</v>
+      </c>
+      <c r="C340" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A341" s="1">
+        <v>4400</v>
+      </c>
+      <c r="B341" s="1">
+        <v>1</v>
+      </c>
+      <c r="C341" s="1">
         <v>0</v>
       </c>
     </row>
@@ -8958,10 +9860,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C300"/>
+  <dimension ref="A1:C341"/>
   <sheetViews>
-    <sheetView topLeftCell="A254" workbookViewId="0">
-      <selection activeCell="E275" sqref="E275"/>
+    <sheetView topLeftCell="A293" workbookViewId="0">
+      <selection activeCell="A301" sqref="A301:C341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12267,6 +13169,457 @@
         <v>1</v>
       </c>
       <c r="C300" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A301" s="1">
+        <v>4000</v>
+      </c>
+      <c r="B301" s="1">
+        <v>1</v>
+      </c>
+      <c r="C301" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A302" s="1">
+        <v>4010</v>
+      </c>
+      <c r="B302" s="1">
+        <v>1</v>
+      </c>
+      <c r="C302" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A303" s="1">
+        <v>4020</v>
+      </c>
+      <c r="B303" s="1">
+        <v>1</v>
+      </c>
+      <c r="C303" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A304" s="1">
+        <v>4030</v>
+      </c>
+      <c r="B304" s="1">
+        <v>1</v>
+      </c>
+      <c r="C304" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A305" s="1">
+        <v>4040</v>
+      </c>
+      <c r="B305" s="1">
+        <v>1</v>
+      </c>
+      <c r="C305" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A306" s="1">
+        <v>4050</v>
+      </c>
+      <c r="B306" s="1">
+        <v>1</v>
+      </c>
+      <c r="C306" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A307" s="1">
+        <v>4060</v>
+      </c>
+      <c r="B307" s="1">
+        <v>1</v>
+      </c>
+      <c r="C307" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A308" s="1">
+        <v>4070</v>
+      </c>
+      <c r="B308" s="1">
+        <v>1</v>
+      </c>
+      <c r="C308" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A309" s="1">
+        <v>4080</v>
+      </c>
+      <c r="B309" s="1">
+        <v>1</v>
+      </c>
+      <c r="C309" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A310" s="1">
+        <v>4090</v>
+      </c>
+      <c r="B310" s="1">
+        <v>1</v>
+      </c>
+      <c r="C310" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A311" s="1">
+        <v>4100</v>
+      </c>
+      <c r="B311" s="1">
+        <v>1</v>
+      </c>
+      <c r="C311" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A312" s="1">
+        <v>4110</v>
+      </c>
+      <c r="B312" s="1">
+        <v>1</v>
+      </c>
+      <c r="C312" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A313" s="1">
+        <v>4120</v>
+      </c>
+      <c r="B313" s="1">
+        <v>1</v>
+      </c>
+      <c r="C313" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A314" s="1">
+        <v>4130</v>
+      </c>
+      <c r="B314" s="1">
+        <v>1</v>
+      </c>
+      <c r="C314" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A315" s="1">
+        <v>4140</v>
+      </c>
+      <c r="B315" s="1">
+        <v>1</v>
+      </c>
+      <c r="C315" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A316" s="1">
+        <v>4150</v>
+      </c>
+      <c r="B316" s="1">
+        <v>1</v>
+      </c>
+      <c r="C316" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A317" s="1">
+        <v>4160</v>
+      </c>
+      <c r="B317" s="1">
+        <v>1</v>
+      </c>
+      <c r="C317" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A318" s="1">
+        <v>4170</v>
+      </c>
+      <c r="B318" s="1">
+        <v>1</v>
+      </c>
+      <c r="C318" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A319" s="1">
+        <v>4180</v>
+      </c>
+      <c r="B319" s="1">
+        <v>1</v>
+      </c>
+      <c r="C319" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A320" s="1">
+        <v>4190</v>
+      </c>
+      <c r="B320" s="1">
+        <v>1</v>
+      </c>
+      <c r="C320" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A321" s="1">
+        <v>4200</v>
+      </c>
+      <c r="B321" s="1">
+        <v>1</v>
+      </c>
+      <c r="C321" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A322" s="1">
+        <v>4210</v>
+      </c>
+      <c r="B322" s="1">
+        <v>1</v>
+      </c>
+      <c r="C322" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A323" s="1">
+        <v>4220</v>
+      </c>
+      <c r="B323" s="1">
+        <v>1</v>
+      </c>
+      <c r="C323" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A324" s="1">
+        <v>4230</v>
+      </c>
+      <c r="B324" s="1">
+        <v>1</v>
+      </c>
+      <c r="C324" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A325" s="1">
+        <v>4240</v>
+      </c>
+      <c r="B325" s="1">
+        <v>1</v>
+      </c>
+      <c r="C325" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A326" s="1">
+        <v>4250</v>
+      </c>
+      <c r="B326" s="1">
+        <v>1</v>
+      </c>
+      <c r="C326" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A327" s="1">
+        <v>4260</v>
+      </c>
+      <c r="B327" s="1">
+        <v>1</v>
+      </c>
+      <c r="C327" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A328" s="1">
+        <v>4270</v>
+      </c>
+      <c r="B328" s="1">
+        <v>1</v>
+      </c>
+      <c r="C328" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A329" s="1">
+        <v>4280</v>
+      </c>
+      <c r="B329" s="1">
+        <v>1</v>
+      </c>
+      <c r="C329" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A330" s="1">
+        <v>4290</v>
+      </c>
+      <c r="B330" s="1">
+        <v>1</v>
+      </c>
+      <c r="C330" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A331" s="1">
+        <v>4300</v>
+      </c>
+      <c r="B331" s="1">
+        <v>1</v>
+      </c>
+      <c r="C331" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A332" s="1">
+        <v>4310</v>
+      </c>
+      <c r="B332" s="1">
+        <v>1</v>
+      </c>
+      <c r="C332" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A333" s="1">
+        <v>4320</v>
+      </c>
+      <c r="B333" s="1">
+        <v>1</v>
+      </c>
+      <c r="C333" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A334" s="1">
+        <v>4330</v>
+      </c>
+      <c r="B334" s="1">
+        <v>1</v>
+      </c>
+      <c r="C334" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A335" s="1">
+        <v>4340</v>
+      </c>
+      <c r="B335" s="1">
+        <v>1</v>
+      </c>
+      <c r="C335" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A336" s="1">
+        <v>4350</v>
+      </c>
+      <c r="B336" s="1">
+        <v>1</v>
+      </c>
+      <c r="C336" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A337" s="1">
+        <v>4360</v>
+      </c>
+      <c r="B337" s="1">
+        <v>1</v>
+      </c>
+      <c r="C337" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A338" s="1">
+        <v>4370</v>
+      </c>
+      <c r="B338" s="1">
+        <v>1</v>
+      </c>
+      <c r="C338" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A339" s="1">
+        <v>4380</v>
+      </c>
+      <c r="B339" s="1">
+        <v>1</v>
+      </c>
+      <c r="C339" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A340" s="1">
+        <v>4390</v>
+      </c>
+      <c r="B340" s="1">
+        <v>1</v>
+      </c>
+      <c r="C340" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A341" s="1">
+        <v>4400</v>
+      </c>
+      <c r="B341" s="1">
+        <v>1</v>
+      </c>
+      <c r="C341" s="1">
         <v>180</v>
       </c>
     </row>
